--- a/ExportExcelDSGH.xlsx
+++ b/ExportExcelDSGH.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>Mã đơn hàng</t>
   </si>
@@ -32,28 +32,46 @@
     <t>Trạng thái</t>
   </si>
   <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>2024-06-16</t>
-  </si>
-  <si>
-    <t>2024-06-18</t>
-  </si>
-  <si>
-    <t>ghn</t>
-  </si>
-  <si>
-    <t>đã giao</t>
-  </si>
-  <si>
-    <t>0000-00-00</t>
-  </si>
-  <si>
-    <t>jt</t>
-  </si>
-  <si>
-    <t>giao</t>
+    <t xml:space="preserve"> DH_02 </t>
+  </si>
+  <si>
+    <t>2024-06-29</t>
+  </si>
+  <si>
+    <t>2024-06-30</t>
+  </si>
+  <si>
+    <t>J&amp;T</t>
+  </si>
+  <si>
+    <t>Đang vận chuyển</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DH_03 </t>
+  </si>
+  <si>
+    <t>DH-09</t>
+  </si>
+  <si>
+    <t>2024-06-08</t>
+  </si>
+  <si>
+    <t>2024-06-13</t>
+  </si>
+  <si>
+    <t>Không thành công</t>
+  </si>
+  <si>
+    <t>DH_01</t>
+  </si>
+  <si>
+    <t>2024-06-15</t>
+  </si>
+  <si>
+    <t>2024-06-21</t>
+  </si>
+  <si>
+    <t>Thành công</t>
   </si>
 </sst>
 </file>
@@ -418,10 +436,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -430,7 +448,7 @@
     <col min="2" max="2" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="26.993408" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="21.137695" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="19.995117" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -468,20 +486,54 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2">
-        <v>112</v>
+      <c r="A3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
